--- a/public/uploads/excel-formats/customer-po-block-quantity.xlsx
+++ b/public/uploads/excel-formats/customer-po-block-quantity.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnofra\Downloads\manish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Order Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Customer Name</t>
   </si>
@@ -35,9 +32,6 @@
     <t>PO Number</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
     <t>Facility Name</t>
   </si>
   <si>
@@ -93,12 +87,15 @@
   </si>
   <si>
     <t>Vendor Code</t>
+  </si>
+  <si>
+    <t>SKU Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -178,6 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,39 +457,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,68 +497,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="V1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/excel-formats/customer-po-block-quantity.xlsx
+++ b/public/uploads/excel-formats/customer-po-block-quantity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Customer Name</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Net Landing Rate</t>
   </si>
   <si>
-    <t>MRP</t>
-  </si>
-  <si>
     <t>Rate Confirmation</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>SKU Code</t>
+  </si>
+  <si>
+    <t>PO MRP</t>
+  </si>
+  <si>
+    <t>Product MRP</t>
   </si>
 </sst>
 </file>
@@ -128,36 +131,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -167,15 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,90 +447,93 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.140625" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D4" s="3"/>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/excel-formats/customer-po-block-quantity.xlsx
+++ b/public/uploads/excel-formats/customer-po-block-quantity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\project\public\uploads\excel-formats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,17 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Customer Name</t>
   </si>
@@ -32,6 +27,9 @@
     <t>PO Number</t>
   </si>
   <si>
+    <t>SKU Code</t>
+  </si>
+  <si>
     <t>Facility Name</t>
   </si>
   <si>
@@ -47,6 +45,9 @@
     <t>HSN</t>
   </si>
   <si>
+    <t>GST</t>
+  </si>
+  <si>
     <t>Item Code</t>
   </si>
   <si>
@@ -56,71 +57,51 @@
     <t>Basic Rate</t>
   </si>
   <si>
-    <t>GST</t>
-  </si>
-  <si>
     <t>Net Landing Rate</t>
   </si>
   <si>
-    <t>Rate Confirmation</t>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Product MRP</t>
+  </si>
+  <si>
+    <t>MRP Confirmation</t>
   </si>
   <si>
     <t>PO Quantity</t>
   </si>
   <si>
+    <t>Available Quantity</t>
+  </si>
+  <si>
+    <t>Unavailable Quantity</t>
+  </si>
+  <si>
     <t>Case Pack Quantity</t>
   </si>
   <si>
-    <t>Available Quantity</t>
-  </si>
-  <si>
-    <t>Unavailable Quantity</t>
+    <t>Purchase Order Quantity</t>
   </si>
   <si>
     <t>Block</t>
   </si>
   <si>
-    <t>Purchase Order Quantity</t>
-  </si>
-  <si>
     <t>Vendor Code</t>
   </si>
   <si>
-    <t>SKU Code</t>
-  </si>
-  <si>
-    <t>PO MRP</t>
-  </si>
-  <si>
-    <t>Product MRP</t>
+    <t>Reason</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,18 +121,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,114 +406,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.25" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.25" customWidth="1"/>
+    <col min="23" max="23" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>